--- a/deuChatbot/research_result/results/bleu_score/bleu_version_2(3000_0).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_2(3000_0).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6265,61 +6265,3516 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인 세 가지 분야에서 이루어집니다. 각 분야는 다음과 같이 구성됩니다:
+1. **실기종목 (택1)**:
+   - **기초디자인**: 이 부분에서는 기본적인 디자인 원리를 이해하고 적용하는 능력을 평가합니다. 예를 들어, 색상 조합, 형태의 표현 등이 포함될 수 있습니다.
+   - **사고의 전환**: 이 부분에서는 창의적 사고와 문제 해결 능력을 평가합니다. 디자인 문제에 대한 다양한 접근 방식을 제시하고 이를 구체적으로 표현하는 능력이 요구됩니다.
+2. **종목별 배점 (비율)**:
+   - 각 종목은 700점 중에서 점수를 받으며, 이는 총 점수의 70%를 차지합니다. 즉, 기초디자인과 사고의 전환 두 가지 종목 모두 잘 수행해야 합니다.
+이러한 실기시험을 통해 입학사정관들은 지원자의 디자인 감각, 창의력, 문제 해결 능력을 평가하게 됩니다. 따라서 지원자는 이러한 능력을 충분히 발휘할 수 있도록 준비하는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3519345528539636</v>
+        <v>0.2605152871562909</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 두 가지가 있습니다:
+1. **기초디자인**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시: 잠자리와 저울.
+     - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+   - **화지크기**: 켄트지3절.
+   - **시간**: 5시간.
+2. **사고의 전환**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시: 콜라병과 계절.
+     - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+     - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+   - **화지크기**: 켄트지2절.
+   - **시간**: 5시간.
+두 종목 모두 준비물은 동일하며, 실기주제는 당일 추첨을 통해 결정됩니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.1782811366543097</v>
+        <v>0.7317194857942261</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024학년도 변경사항에 따르면, 경기지도학과는 신설된 학과로 아직 구체적인 모집 종목이나 인정 대회 정보가 제공되지 않았습니다. 따라서 현재로서는 경기지도학과의 모집 종목별 인정대회에 대한 정보를 제공할 수 없습니다.
+경기지도학과가 신설됨에 따라, 해당 학과의 모집 종목 및 인정 대회 등 구체적인 정보는 2024년 정시모집 안내나 학교 입학처 홈페이지 등을 통해 공식 발표될 예정입니다. 따라서 최신 정보를 얻기 위해서는 해당 학교의 공식 웹사이트나 입학처와 직접 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.08040012677100089</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>依据您提供的信息，设计造型学部的基础设计实考科目包括两个主题：
+1. 主题A：例如 "蚕茧与秤"（蚕茧和秤）
+2. 主题B：例如 "音乐盒、尺子、胶带、锁、麦凯尔刀"（音乐盒、尺子、透明胶带、钥匙、瑞士军刀）
+考生需要从这两个主题中各选一个进行创作，将它们连接成一个新的主题。具体要求如下：
+- 提供的物品和图像以外的形状不得表现
+- 所提供的物品必须至少出现一次
+- 不得更改所提供的物品的颜色
+- 画纸尺寸为3张肯特纸（Kant）裁剪
+请注意，实际的主题会通过现场抽签决定，所以考生需要做好准备应对不同的主题组合。</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.06180769509594963</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도부터 학생부교과 전형에서 출결 점수가 반영됩니다. 이전에는 출결이 포함되지 않았으나, 변경된 내용에 따르면 출결이 18%의 비율로 반영되며, 실기/실적(경기실적우수자전형)에서는 출결이 12%의 비율로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.04035766648023515</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.7952128545612676</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직입니다. 해당 정보에 따르면 이 과정에서 다군 수능(일반학생전형)으로 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2111179865360722</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.566895067967601</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.7514683195651968</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>依据提供的信息，艺术高中的学生可以考虑通过"나군 학생부교과(농어촌학생전형)"（农村学生专项）申请。但是需要注意以下几点：
+1. **适用对象**：该专项主要针对在农·面地区中学完成整个教育过程并在此期间居住的考生。
+2. **提交材料**：
+   - 6年制课程：需要提供本人及其父母的户籍证明、初中和高中学籍卡。
+   - 12年制课程：需要提供本人的户籍证明、初中的学籍卡以及高中的学籍卡（对于在农·面地区中学完成整个教育过程并在此期间居住的学生，6年制课程也可以提交材料）。
+3. **额外要求**：
+   - 如果父母一方已故，则需提供死亡证明或离婚证。
+   - 需要提供高中学生成长记录簿。
+4. **成绩考虑**：最终注册者还需补充提交高中毕业证书、本人及其父母的户籍证明（共三份）。
+因此，艺术高中的学生如果满足在农·面地区中学完成整个教育过程并在该期间居住的要求，则可以申请“나군 학생부교과(농어촌학생전형)”。建议详细阅读学校的具体要求和补充材料，并确保所有文件齐全。</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.0216935657459559</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기의 4등급 기록은 277~280 cm이며, 배점은 208.0 점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.4826099248997749</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 출결이 전형요소 반영비율에 포함되며, 출결의 반영 비율은 12%입니다.
+상세 내용은 다음과 같습니다:
+- 전형 유형: 실기/실적 위주
+- 전형명: 나군 실기/실적(일반학생전형)
+- 모집 인원: 7명
+- 수능 최저 기준: 없음
+- 전형요소 반영비율(%)의 학생부 교과: 0%
+- 전형요소 반영비율(%)의 출결: 12%
+- 전형요소 반영비율(%)의 서류: 70%
+- 전형요소 반영비율(%)의 면접: 0%
+- 전형요소 반영비율(%)의 실기: 0%
+- 전형요소 반영비율(%)의 수능: 30%
+따라서 경기지도학과에서는 출결이 12%의 비중으로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>2.173055462557081e-06</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9472652833627722</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.
+상세 일정은 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **모집단위**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- **비고**: 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+이 정보를 참고하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>3.456983435759454e-05</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学2024学年应用化学专业的具体最低录取标准。根据您给出的信息，有关应用化学专业的描述是：
+```
+다군 수능(일반학생전형) 모집단위 및 모집인원에서 단과대학은 공과대학이며, 계열은 공학이며, 모집단위은 응용화학과이며, 모집인원은 22이다.
+```
+这表明应用化学专业的招生单位属于工学院，理工科系，并且计划招收22名学生。但是关于具体的最低录取标准（如各科目分数要求等），信息中并未给出。
+如果您需要了解具体的应用化学专业2024学年的最低录取标准，建议直接访问东义大学的官方网站或联系学校的招生办公室获取最准确的信息。通常学校官网会有详细的招生简章和录取条件说明。
+您可以参考以下链接以获得更多信息：
+https://ipsi.deu.ac.kr/main.do
+如果需要进一步的帮助，请告诉我具体想了解哪方面的信息。</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>5.20968803909563e-87</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 아동학과 (从前科目的名称：保育·가정상담학과)
+2. 심리학과 
+3. 스마트항만물류학과 
+4. 창업투자경영학과 
+5. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) 
+위와 같이 2024년에 신설된 학과들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.6452870533702814</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 지원자의 학생부 교과 성적, 면접 성적 등을 종합적으로 평가하기 위한 기준입니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.3347798681521155</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학과 ICT융합공과대학 모집단위에서 수능 가산점을 적용합니다. 
+특히, 공과대학 및 ICT융합공과대학 모집단위에 지원하는 학생 중 수학(미적분 또는 기하) 응시자는 수학 표준점수의 10%를 가산점으로 부여받을 수 있습니다.
+관련 정보는 다음과 같습니다:
+- 수능 반영영역 및 가산점에서:
+  - 모집단위은 공과대학, ICT융합공과대학 모집단위
+  - 가산점은 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점
+따라서, 해당 학과에서 수능 성적이 중요한 입학 요건 중 하나이며, 수학을 잘하는 학생들에게 유리한 조건이 제공됩니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.2128705151016768</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **반영 영역 및 비율**:
+   - 국어 표준점수: 25%
+   - 수학 표준점수: 25%
+   - 영어 등급 점수: 25%
+   - 탐구 표준점수: 25%
+3. **특이사항**: 
+   - 레저스포츠학과, 태권도학과의 경우는 다른 반영 방법을 사용합니다 (실기고사 성적 등).
+이렇게 수능 성적이 학생들의 총점에 100%로 반영되며, 각 영역별로 표준점수와 등급 점수가 평균적으로 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.06608873245623054</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과, 태권도학과: 2024. 01. 16.(화)
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024. 01. 17.(수)
+이 정보는 전형일정에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.05782875036517215</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 실기/실적 전형으로 모집되므로 일반학생전형에서는 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.54359793755363</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서 수능 최저기준은 없습니다. 
+참조된 정보에 따르면, "전형요소 반영비율" 섹션에서 다음과 같이 언급되어 있습니다:
+- 전형 유형이 수능 위주인 경우에도 
+- 가군 수능(일반학생전형)의 경우 수능최저기준은 없음
+- 나군 수능(일반학생전형)의 경우 수능최저기준은 없음
+- 다군 수능(일반학생전형)의 경우 수능최저기준은 없음
+따라서 동의대학교 2024학년도 다군 전형에서는 수능 최저기준이 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.004061045191786324</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 미디어커뮤니케이션학과와 스마트항만물류학과가 학부에서 학과로 분리되었습니다. 
+- 미디어커뮤니케이션학과는 단과대학 인문사회과학대학에 속하게 되었습니다.
+- 스마트항만물류학과는 신설된 학과로서, 단과대학 공과대학에 포함되었습니다.
+따라서, 이 두 학과가 분리되어 각각 다른 단과대학의 소속이 되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.07458494907302204</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.
+따라서 원서 접수는 2024년 1월 3일 수요일부터 1월 6일 토요일까지 가능하며, 특히 1월 6일 토요일 오후 6시까지 마감됩니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.175186617685397</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합 평가영역 변경**
+   - 2023학년도: 인성 ㅣ 학업역량 ㅣ 전공적합성
+   - 2024학년도: 공동체역량 ㅣ 학업역량 ㅣ 전공적합성
+2. **전형요소 반영비율 변경**
+   - **가군 수능(일반학생전형)**
+     - 2023학년도: 학생부 교과 30%, 출결 12%, 서류 70%
+     - 2024학년도: 학생부 교과 18%, 출결 12%, 서류 70%, 수능 30%
+   - **나군 수능(일반학생전형)**
+     - 2023학년도: 학생부 교과 70%, 면접 30%
+     - 2024학년도: 학생부 교과 60%, 출결 12%, 서류 70%, 면접 40%
+   - **다군 수능(일반학생전형)**
+     - 2023학년도: 학생부 교과 0%, 출결 0%, 서류 0%, 면접 0%, 실기 0%, 수능 100%
+     - 2024학년도: 학생부 교과 0%, 출결 0%, 서류 0%, 면접 0%, 실기 0%, 수능 100%
+3. **전형요소 반영비율 변경**
+   - **나군 학생부종합(평생학습자전형)**
+     - 2023학년도: 서류 70%, 면접 30%
+     - 2024학년도: 서류 70%, 면접 30%
+   - **나군 학생부종합(성인학습자전형)**
+     - 2023학년도: 서류 70%, 면접 30%
+     - 2024학년도: 서류 70%, 면접 30%
+   - **나군 학생부종합(재직자전형)**
+     - 2023학년도: 서류 60%, 면접 40%
+     - 2024학년도: 서류 70%, 면접 30%
+이러한 변화는 학생부 교과성적의 중요성을 강화하고, 출결 및 실기 성적을 반영하는 방향으로 전형 요소가 조정되었습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.4169360555139166</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "전형요소 반영비율" 섹션에서 확인할 수 있습니다:
+전형유형은 실기/실적 위주이며, 
+전형명은 가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과이며,
+모집인원은 11명이고,
+전형요소 반영비율의 수능은 30%이며,
+전형요소 반영비율의 실기는 70%입니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.01399004955774612</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래 융합 분야에 초점을 맞추어 다양한 산업과 문화를 결합한 새로운 전공들을 도입하였습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.4143505327621863</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기 또는 Z-런)
+2. 태권도학과
+이 두 학과에서는 실기고사가 필수적으로 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.3510781692569842</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과가 실기/실적 위주 전형을 통해 모집됩니다. 기타 학과들은 다른 전형방법(예: 수능 위주, 학생부교과 위주 등)으로 모집하거나 해당되지 않습니다.
+추가 정보:
+- 이전 년도와 마찬가지로 실기/실적 위주 전형의 경우 학생부 교과, 출결, 서류(실적), 면접, 수능 등의 요소를 반영하지 않습니다.
+- 모집인원은 11명입니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.1413610560108345</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+따라서, 동의대 라이프융합학부에서는 총 3개의 전공 과정을 개설하여 학생들에게 다양한 분야에서의 교육과 경험을 제공할 계획입니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.3475715577368169</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，并且符合以下条件之一，则有可能申请东义大学的一般学生入学考试：
+1. **科学高中 (과학고)**
+2. **国际高中 (국제고)**
+3. **外语高中 (외국어고)**
+如果满足上述条件，你可以在一般学生入学考试中进行申请。请确保仔细检查具体的招生要求和截止日期，并准备相应的申请材料。
+如果你需要更详细的信息或具体指导，请访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do）获取最新信息。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.1516870164050104</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 모집 인원을 확인해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 학과들이 많은 수의 학생들을 모집하고 있습니다:
+1. **사회복지학과**: 60명
+2. **경찰행정학과**: 70명
+3. **법학과**: 40명
+4. **인문사회과학대학 - 국어국문학과 - 교직**: 45명
+5. **인문사회과학대학 - 중어중국학과 - 교직**: 46명
+6. **인문사회과학대학 - 일본학과 - 교직**: 55명
+7. **인문사회과학대학 - 영어영문학과 - 교직**: 50명
+이 중에서 가장 많은 인원을 모집하는 학과는 경찰행정학과로, 정원 내 모집 인원이 70명입니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **경찰행정학과**라고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.01431124430899205</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교의 학생부교과 농어촌학생전형으로 지원이 가능합니다. 
+특히, "나군 학생부교과(농어촌학생전형) - 정원외 지원자격" 항목에서 다음과 같이 명시되어 있습니다:
+- 지원 자격: 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 그의 부모 모두가 농어촌(읍·면)지역에 거주한 자 (학생과 부모 거주지가 동일하지 않아도 됨)
+따라서 특수목적고등학교라도, 해당 학교가 농어촌 지역에 위치하고 재학기간 동안 본인 및 부모가 농어촌 지역에 거주했다면 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.1500490603322455</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최종등록자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.2311002066284847</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학의 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2425336078665406</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ippsi.deu.ac.kr 웹사이트를 참조해보시면 정확한 합격자 발표 일정을 확인하실 수 있습니다. 일반적으로 대학마다 합격자 발표일은 다르므로, 해당 사이트에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1074136108520096</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>면접고사는 각 전형에 따라 일정이 다르므로, 정확한 날짜를 알려드리기 위해서는 해당 전형의 일정을 확인해야 합니다. 예를 들어:
+- **가군 수능(일반학생전형) 및 실적**: 면접은 일반적으로 3월 중순부터 시작합니다.
+- **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**: 면접일정은 각 전형별로 다르므로, 해당 전형의 일정을 확인해야 합니다. 예를 들어, 스마트호스피탈리티학과와 같은 모집단위는 4월 중순부터 시작할 수 있습니다.
+따라서, 면접고사를 보러 가기 위한 정확한 날짜를 알려드리기 위해서는 해당 전형의 일정을 확인해야 합니다. 예시로 주어진 정보를 참고하여, 필요에 따라 해당 교차점에서 특정 모집단위의 면접일정을 찾아보세요.
+만약 특정 전형의 일정이 필요하다면, 해당 전형의 공식 웹사이트나 입학사정관팀과 연락하여 정확한 날짜를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.01857847140296571</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>从提供的信息中，没有直接提到韩医学科（한의예과）的具体最低学力标准。但是根据其他部分的信息可以推断出一些关于学力要求的一般性内容：
+1. 对于一般学生入学考试，采用的是综合评价的方式，包括：
+   - 学生学业记录
+   - 出勤情况
+   - 申请材料（实绩）
+2. 在不同类型的招生中，对于学生的学业成绩有不同的权重分配。例如：
+   - 普通学生入学考试：100%依赖于学力测试（没有提到具体科目要求）
+   - 实际/实际导向型（경기실적우수자전형）：8%来自学业记录、12%来自出勤情况，70%来自申请材料
+   - 学生综合评价（학생부종합）类型中也有不同的权重分配
+3. 对于韩医学科来说，虽然没有直接提到最低学力标准，但可以推测它会与其他医学相关专业类似，要求学生具备一定的高中学业基础。
+4. 从其他医学类专业的入学要求来看，通常需要完成高中的全部课程，并且在某些科目（如国语、数学等）达到一定水平。
+因此，虽然没有具体数字说明韩医学科的最低学力标准，但可以合理推测它会要求学生具备高中毕业的学业基础，并且在关键科目上达到一定的成绩门槛。具体的最低学力标准可能需要参考学校官方发布的详细招生简章或咨询校方获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>1.546163270298305e-09</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 제공된 내용에서는 특정 단과대학이나 모집단위별로 수능 최저학력 기준을 명시하고 있지 않습니다. 
+특히 "전형요소 반영비율" 섹션에서 볼 때, 대부분의 전형 유형(수능 위주, 실기/실적 위주 등)에 대해 수능최저기준이 '수능최저기준 없음'으로 표시되어 있습니다.
+따라서 현재 제공된 정보로는 특정 단과대학이나 모집단위별로 수능 최저학력 기준이 없다고 볼 수 있습니다. 하지만 각 학교나 전형별로 정확한 수능 최저학력기준은 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 통해 확인하시거나, 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>1.4450211452647e-06</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024. 02. 14.(수) 09:00부터 충원 합격자 1차 (인터넷) 발표가 시작됩니다. 이어서 2024. 02. 15.(목) 09:00부터는 충원 합격자 2차 (인터넷) 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.3471168607332965</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도 추가합격자는 다음과 같은 일정으로 발표됩니다:
+- 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+추가적으로, 3차 이후의 충원 합격자는 개별 전화 통보를 통해 발표되며, 일정은 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지입니다.
+이러한 정보는 입학 안내 홈페이지를 통해 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.2328444965644896</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）的内容。为了给出准确的回答，我需要更多的具体信息或直接访问学校的官方网站以获取最新的招生政策和通知。
+不过，根据一般的大学招生流程，通常会在以下几个阶段考虑额外招生：
+1. 正规录取结束后，如果某个专业还有剩余名额，可能会进行额外招生。
+2. 针对特定群体（如农渔村学生、成人教育等）的特殊招生计划。
+3. 特定时间段内的补录或二次机会招生。
+建议直接访问德岛大学的官方网站（https://ipsi.deu.ac.kr/main.do），查看最新的招生信息和公告，以获取最准确的答案。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.02784138586446232</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입시에서 성인 학습자를 위한 특별한 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 모집단위 및 모집인원:
+   - 미래융합대학 인문사회 계열 라이프융합학부: 73명
+   - 기타 다양한 단과대학 및 학과에서 모집
+2. 지원자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+   - 만 30세 이상인 자 (성인학습자 전형)
+3. 제출서류:
+   - 고교 학교생활기록부 (고교 졸업(예정)자)
+   - 검정고시 합격증서 및 성적증명서 (검정고시 출신자)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업/성적증명서 등
+4. 전형요소 반영비율:
+   - 서류 70%
+   - 면접 30%
+5. 동점자 처리기준:
+   - 면접 성적이 높은 순
+   - 서류 평가 공동체역량 영역 성적 상위자
+   - 서류 평가 전공적합성 영역 성적 상위자
+   - 교과 성적 상위자
+6. 면접평가:
+   - 개별면접, 1인당 10분 이내
+   - 입학사정관 2인이 평가위원으로 참여
+7. 서류평가 영역 및 배점:
+   - 공동체역량: 협업능력 (180점)
+   - 학업역량: 문제해결능력 (166.5점)
+   - 전공적합성: 진로정보 탐색능력 (120점)
+이러한 정보를 바탕으로 평생학습자전형에 대한 자세한 내용을 확인하시려면 공식 입시 사이트인 https://ipsi.deu.ac.kr/main.do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.422303503707166</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 소속 직원 (단, 해당 기관에서 발급하는 공적증명서 확인 가능)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+위와 같은 조건을 충족해야 평생학습자전형의 지원 자격이 주어집니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.001403920464524063</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>为了参加实考,您需要前往指定的考场。具体步骤如下:
+1. 查看准考证上的考试地点信息。
+2. 提前规划好出行路线和时间,确保按时到达考点。
+3. 携带必要的证件和物品:
+   - 准考证 
+   - 身份证
+   - 2B铅笔、橡皮等文具
+   - 根据具体科目要求携带的其他用品
+4. 注意考场的相关规定,如禁带手机等电子设备。
+5. 提前到达考点进行入场验证和安检。
+6. 按照指示找到相应的考场座位就坐。
+7. 考试开始后仔细阅读试题并作答。
+请务必提前了解具体的考试地点信息,并做好充分的准备。祝您考试顺利!</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.004947123621262021</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2024년도에 체육학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다. 
+체육학과 실기고사 일정은 다음과 같습니다:
+- 날짜: 2024. 01. 17.(수)
+- 대기실 및 입실시간 안내: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+따라서 체육학과의 실기고사는 2024년 1월 17일에 해당 학교에서 진행되며, 이 날짜 전날인 1월 12일 오후 2시 이후에는 대기실 및 입실 시간 정보를 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.03660195117235464</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024학년도 수시 모집의 경우, 충원 합격자 발표 후에는 개별 전화 통보 방식으로 합격자를 알려주는 경우도 있습니다. 하지만 이에 대한 명확한 안내는 해당 대학교 입학처 웹사이트나 공지사항을 확인하는 것이 가장 정확합니다.
+대부분의 대학교에서는 다음과 같은 방법으로 합격자 발표를 진행합니다:
+1. 홈페이지에서 개별 조회
+2. 고지서 교부 (홈페이지에서 출력 또는 입학관리팀에서 수령)
+3. 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+충원 합격자 발표 후 3차 이후에는 종종 개별 전화 통보 방식으로 합격자를 알려주는 경우가 있습니다.
+따라서, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do) 또는 관련 공지사항을 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.1380040343611835</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到2023学年的警察行政学部(或类似名称)的招生结果。根据给出的信息，主要集中在2024年的招生计划、日期和相关细节，并没有包含2023年具体录取情况的数据。
+如果您需要了解2023学年该专业的实际招生结果（如录取人数、最低分数等），建议直接访问学校官网或联系学校的招生办公室获取最准确的信息。通常，这些信息会在每年的招生简章或者入学公告中公布。
+您也可以参考以下链接以获得更多信息：
+https://ipsi.deu.ac.kr/main.do
+如果您有其他具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.09695482200696727</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 모집에서는 일부 전형에서 수능 응시 여부와 관계없이 지원이 가능합니다. 예를 들어, 학생부종합(성인학습자전형), 학생부종합(평생학습자전형) 등은 수능을 응시하지 않아도 지원할 수 있습니다.
+특히, 다음과 같은 전형들은 수능 응시 여부와 관계없이 지원이 가능합니다:
+1. **학생부종합(성인학습자(정원내·외)전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+2. **학생부종합(평생학습자전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+이러한 전형들은 주로 성인 학습자나 평생 학습자를 대상으로 하므로, 수능 응시 여부와 관계없이 지원할 수 있습니다. 자세한 내용은 입학사정관 홈페이지를 참고하시거나 문의해보시는 것이 좋습니다.
+[입학사정관 홈페이지](https://ipsi.deu.ac.kr/main.do)를 방문하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>4.425505053667819e-06</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 고등학교 졸업 후 10년이 경과한 경우 일반적으로 정시모집에 지원할 수 없습니다. 대다수의 대학은 고등학교 졸업 후 3년 이내를 기준으로 하고 있으며, 일부 특별한 프로그램을 제외하고는 10년 이상 경과한 경우에는 지원이 불가능합니다.
+만약 10년이 지났더라도 특정 학과나 전형에서 특례로 지원할 수 있는 경우도 있으므로, 해당 대학의 입시 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 확인하거나 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.211680793104006</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 정시 모집 과정을 진행하는 데 필요한 주요 단계를 포함하고 있습니다. 각 단계별로 중요한 날짜와 정보가 있으므로, 지원자들은 해당 일정을 체크하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.7350275548224348</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 정시 모집 과정을 진행하는 데 필요한 주요 단계를 포함하고 있습니다. 각 단계별로 중요한 날짜와 정보가 있으므로, 지원자들은 해당 일정을 체크하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.3670175799330769</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 동의대학교에서 수능 미응시자도 지원이 가능한 정시모집 전형은 다음과 같습니다:
+1. **나군 실기/실적(일반학생전형)**:
+   - 이 전형에서는 실기 성적이 중요한 요소로 반영되며, 수능 점수는 필요하지 않습니다.
+   - 모집단위: 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과
+2. **나군 학생부종합(조기취업형계약학과전형)**:
+   - 이 전형에서는 주로 학생부와 면접을 통해 평가되며, 수능 점수는 필요하지 않습니다.
+   - 모집단위: 전 모집단위
+이 외의 대부분의 전형은 수능 성적이 필수적인 요소로 포함되어 있습니다. 따라서 수능 미응시자에게는 위에서 언급한 두 가지 전형이 주요하게 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.0815638957721382</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격 (후보순위)은 36명이었습니다. 이는 지원 인원 105명 중 모집 인원 69명을 채우기 위해 36명이 최종적으로 합격한 것을 의미합니다.
+만약 전년도 데이터가 필요하시다면, 해당 정보를 제공하지 못하겠습니다. 웹사이트 https://ipsi.deu.ac.kr/main.do 에 접속하여 최신 정보를 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.3031496593742959</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。为了获取准确的信息，建议访问东义大学官网（https://ipsi.deu.ac.kr/main.do）上的招生页面或联系学校的招生办公室以获得最新的联系电话和其他重要信息。
+如果您需要其他帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.2075346707231293</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우 다음과 같은 절차로 처리됩니다:
+1. **재통보**: 초기 전화 통화 실패 후, 입학처에서는 다시 한 번 재통보를 시도합니다.
+2. **메시지 발송**: 전화 통화에 실패한 경우, 해당 학생에게 문자 메시지를 보내서 합격 사실을 알립니다.
+3. **웹사이트 확인**: 학생들은 입학 안내 홈페이지에서 개별적으로 합격 여부를 조회할 수 있습니다.
+4. **입학관리팀 문의**: 학생이 직접 입학관리팀에 문의하여 상황을 확인하고 필요한 정보를 얻을 수 있습니다.
+5. **고지서 발송**: 합격 사실을 고지하는 서류를 홈페이지에서 출력하거나, 입학관리팀에서 수령할 수 있습니다.
+6. **등록 절차 진행**: 학생들은 등록장소로 지정된 은행으로 이동하여 등록금 납부 등의 등록 절차를 진행합니다.
+이러한 절차를 통해 학생들이 충원합격 사실을 확인하고 필요한 사항들을 처리할 수 있도록 지원됩니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.06389884267269591</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류가 필요합니다:
+1. 지원자 본인의 가족관계증명서 (1부)
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 (1부) - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+4. 고등학교 학교생활기록부 (1부) - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+추가로 6년 과정의 경우:
+- 중·고등학교 재학기간 동안 본인 및 부모 모두 농어촌 지역에 거주한 증빙자료 (필요시)
+12년 과정의 경우:
+- 중·고등학교 재학 시 부모가 농어촌 지역에 거주한 증빙자료 (필요시)
+- 고교 졸업증명서
+- 지원자 본인, 부모 각 1부의 초본 (총 3부)
+이 외에도 특정 학과나 모집단위에 따라 추가적인 서류가 필요할 수 있으므로 해당 정보를 확인하시기 바랍니다. 자세한 내용은 동아대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 문의주시면 도움을 드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.3612885092827383</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야 하는 주요 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 및 미동의자)
+5. 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부를 추가로 제출)
+6. 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부와 본인의 기본증명서(상세) 1부를 추가로 제출
+위 서류들은 지원자의 학력 및 거주 경력을 증빙하기 위한 것입니다. 특히, 중학교와 고등학교의 학교생활기록부는 교육과정 이수 여부를 확인하는 데 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4183765477556064</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관전형 안내 자료를 보면, 정시모집의 저소득 기회균등 전형에 대한 정보는 명시되어 있지 않습니다. 따라서 현재 제공된 정보로는 정시모집에서 저소득 기회균등 전형이 선발되는지 여부를 확인할 수 없습니다. 
+추가적인 자세한 내용은 학교 입학처나 대학 홈페이지를 통해 확인하시거나, 직접 학교에 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1396597062424023</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사되지 않고 그대로 반영됩니다.
+수능 영어 영역의 등급 평균을 산출할 때, 2.5등급이 나오더라도 이는 절사 처리 대상이 아닙니다. 즉, 2.5등급은 실제 평균점수로 계산되며, 해당 점수가 수능 성적 산출에 사용됩니다.
+예를 들어:
+- 과탐(사회) 영역에서 2.0 등급
+- 과탐(과학) 영역에서 3.0 등급
+이 경우 평균은 (2.0 + 3.0) / 2 = 2.5 등급으로 계산됩니다.
+따라서, 2.5등급은 실제 평균 점수로 반영되며, 절사 처리는 이루어지지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1594336597078665</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 합격자 발표 및 등록금 납부
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00~16:00
+   - 내용: 합격자 발표 및 등록금 납부
+3. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+   - 내용: 합격자 발표 및 등록금 납부
+각 차례별로 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행으로, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.2407849353069056</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看e비즈니스학과的相关信息。根据提供的信息：
+1. **e비즈니스학과의 모집인원 및 지원 인원**:
+   - e비즈니스학과는 모집인원이 31명이고, 지원 인원은 89명입니다.
+   - 경쟁률은 2.857 (89 / 31) 입니다.
+2. **수능 성적 평균 및 표준 편차**:
+   - e비즈니스학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 426.25이고, 표준 편차는 14.02입니다.
+3. **전형요소 반영비율**:
+   - e비즈니스학과는 수능 성적을 100%로 반영합니다.
+4. **동점자 처리기준**:
+   - 동점자 처리 기준은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수) 영역의 합계점수 상위자입니다.
+### 분석
+1. **경쟁률과 지원 인원**:
+   - e비즈니스학과는 경쟁률이 2.857로 비교적 낮습니다.
+   - 지원 인원은 89명으로 많지만, 모집인원도 31명이므로 여전히 많은 수의 학생들이 충원되지 못할 가능성이 있습니다.
+2. **수능 성적**:
+   - 주어진 수능 점수가 4.6이라는 것은 표준 변환 점수를 의미하는 것 같습니다.
+   - 평균 점수는 426.25이고, 표준 편차가 14.02이므로, 4.6은 약 30점 정도 아래에 해당합니다.
+### 결론
+- 주어진 수능 성적 (4.6)은 평균보다 상당히 낮습니다.
+- 그러나 e비즈니스학과의 경쟁률이 낮고 모집인원도 많으므로, 이 점수로 추가 합격 가능성은 있습니다.
+- 하지만 확실한 것은 아니며, 최종 결정은 입학사정관들의 평가와 동점자 처리 기준에 따라 달라질 수 있습니다.
+**추천 조치:**
+1. 다른 전형 (예: 정시 등)을 준비하는 것이 좋습니다.
+2. 추가적으로 수능 공부를 강화하여 높은 점수를 얻는 것을 고려해 보세요.
+3. 입학사정관 면접에서도 좋은 성적을 받기 위해 준비하세요.
+이 정보와 분석을 바탕으로, 주어진 수능 성적이 e비즈니스학과로 추가 합격 가능할 것으로 보입니다만, 최종 결정은 입학사정관들의 평가에 따라 달라질 수 있으므로, 정확한 결과는 입학사정관의 판단을 기다리는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.242254855981655</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 모집 상황을 살펴보겠습니다.
+- **모집 인원**: 10명
+- **지원 인원**: 89명
+- **경쟁률**: 8.90
+- **최종 합격 (후보순위)**: 31명
+이 정보를 바탕으로, 정시 등급 5.3에 해당하는 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.20이며, 표준 편차는 7.56입니다.
+**평균 점수와 지원자 분포를 고려할 때:**
+- **평균 점수**: 317.20
+- **표준 편차**: 7.56
+이러한 통계에서, 등급 5.3에 해당하는 학생의 점수가 평균보다 약간 높은 수준으로 추정됩니다.
+**경쟁률과 최종 합격자 분포를 고려할 때:**
+- **최종 합격자**: 31명 중에서 충원된 합격자는 5명입니다.
+- 이는 경쟁률이 높은 상황임을 의미합니다.
+**결론:**
+정시 등급 5.3에 해당하는 점수가 평균보다 약간 높으므로, 최초합격 가능성은 있습니다만, 매우 높은 경쟁률을 고려하면 안전한 합격을 보장받기 위해서는 더 높은 점수를 받는 것이 좋습니다. 
+따라서, 정시 등급 5.3으로 e비즈니스학과에 최초합격 가능성은 있으나, 확실하지 않으며, 추가적인 준비와 노력이 필요할 수 있습니다.
+추가적으로, 동의대학교의 입학 관련 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하여 자세한 정보를 확인하시거나, 대학 측에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.06447093956576869</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个方面：
+1. **你的成绩**：你需要提供具体的国语、数学和英语的标准化转换分数。
+2. **学校生活记录和个人陈述**：需要详细描述你在高中期间的表现，包括学业态度、团队合作能力等。
+3. **面试表现**（如果适用）：面试中的回答是否符合招生标准。
+假设你提供的信息如下：
+- 国语 (Korean) 标准化转换分数: 90
+- 数学 (Math) 标准化转换分数: 85
+- 英语 (English) 等级: B (对应标准化转换分数约70)
+- 学校生活记录和个人陈述：你在高中期间表现出色，积极参与团队活动，并且在学业上也取得了不错的成绩。
+- 面试表现：你的回答清晰、有条理，展示了对所申请专业的热情和理解。
+根据你提供的信息：
+1. **国语 + 数学 + 英语 (标准化转换分数)**
+   - 90 + 85 + 70 = 245
+2. **学校生活记录和个人陈述**：你的表现符合招生标准，展示了良好的团队合作能力和积极的学习态度。
+3. **面试表现**：你的回答清晰、有条理，并且对所申请的专业表现出浓厚的兴趣和理解。
+根据这些信息来看，你的成绩在平均范围内。虽然没有达到最高分，但整体表现良好，具备一定的竞争力。具体能否预估为预录取（预审合格），还需要参考具体的招生标准和竞争情况。
+建议你：
+1. **详细准备面试**：确保你在面试中能够清晰、有条理地回答问题。
+2. **补充材料**：如果有任何可以进一步展示你的能力和热情的额外材料，尽量提供。
+3. **关注官方信息**：定期查看学校官网发布的最新招生信息和通知。
+希望这些信息对你有所帮助！如果需要更具体的建议，请提供更多详细信息。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>7.43413596867411e-80</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44의 영어 등급 점수로 동의대학교 간호학과에 합격하기는 어렵다고 볼 수 있습니다. 간호학과의 최종등록자 중에서 가장 낮은 영어 등급 평균은 2.34였습니다 (간호학과 모집인원 22명, 지원인원 145명, 경쟁률 6.59). 이는 3.44보다 훨씬 낮은 점수입니다.
+또한, 간호학과의 최종등록자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 353.48였습니다. 이 값도 3.44로는 크게 높습니다.
+따라서, 현재의 성적만으로는 간호학과에 합격하기 어렵다고 판단할 수 있습니다. 그러나 다음과 같은 방법들을 고려해볼 수도 있습니다:
+1. **추가 지원**: 다른 모집단위나 전형을 추가로 지원하여 기회를 늘릴 수 있습니다.
+2. **재수 시도**: 성적 향상을 위해 재수를 계획할 수 있습니다.
+3. **기타 자격**: 학생부, 실기 등 기타 평가 요소에서 우수한 점수를 받을 경우 합격 가능성은 높아질 수 있습니다.
+추가로 지원하거나 재수를 고려하는 경우에는 전문적인 컨설팅을 받아보는 것이 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.1149364358018439</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 상당히 낮은 수준입니다. 동의대학교 간호학과의 경우, 최신 데이터를 보면 다음과 같은 특징이 있습니다:
+1. **경쟁률**: 6.59 (최종 등록자 기준)
+2. **국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균**: 353.48
+3. **영어 등급 평균**: 2.34
+이러한 데이터를 바탕으로, 2.52라는 점수는 매우 낮은 수준이며, 일반적으로 최종 합격 가능성은 매우 낮습니다.
+**추천 조치:**
+1. **다른 대학이나 전형 탐색**: 경쟁률이 높고 기준점수가 높은 간호학과에서 합격하기는 어렵습니다. 다른 대학의 간호학과나 다른 전형(예: 특기자전형, 실기전형 등)을 고려해보세요.
+2. **개인적 강점을 살리기**: 동의대학교에서는 서류평가와 면접평가가 중요한 역할을 합니다. 개인적인 경험, 활동, 열정 등을 잘 준비하여 서류와 면접에서 좋은 평가를 받는 것이 중요합니다.
+**추천 전략:**
+1. **서류 준비**: 학교생활기록부와 자기소개서를 철저히 준비하고, 실제 경험이나 활동을 구체적으로 기재하세요.
+2. **면접 준비**: 지원 동기, 학업계획, 전공적합성 등을 잘 준비하여 면접에서 좋은 평가를 받도록 하세요.
+이런 조치들을 통해 합격 가능성은 높아질 수 있습니다. 그러나 여전히 낮은 점수로 인해 큰 어려움을 겪을 가능성이 높습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.02797424376242349</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수지만, 간호학과에 지원할 때 여러 요소를 고려해야 합니다.
+1. **전형 유형**: 간호학과는 일반적으로 경쟁이 매우 치열합니다. 특히 실기고사가 포함된 전형일 경우, 수능 성적 외에도 실기 성적이 중요하게 평가됩니다.
+2. **수능 성적**: 간호학과의 모집단위 중 일부는 수능 점수가 중요한 요소입니다. 예를 들어, 간호학과 - 교직 - 간호교육인증은 수능 점수가 반영되는 전형일 수 있습니다.
+3. **실기 성적**: 실기고사는 간호학과에서 매우 중요합니다. 제자리 멀리뛰기나 Z-런 등 특정 실기 과목을 준비해야 합니다.
+4. **추천서 및 자기소개서**: 일부 전형에서는 추천서와 자기소개서가 중요한 역할을 하므로, 잘 작성한 서류도 중요합니다.
+5. **동점자 처리 기준**: 동점자가 발생했을 때, 수능 국어, 수학, 영어 등급 점수를 합산하여 상위자를 선발하기 때문에 좋은 성적이 유리합니다.
+6. **추천 및 특기사항**: 추천서나 자기소개서에서 자신의 강점을 잘 표현하고, 간호사로서의 열정과 적합성을 잘 전달하는 것이 중요합니다.
+결론적으로 3.7의 GPA는 좋은 점수이지만, 간호학과에 합격하기 위해서는 수능 성적, 실기 성적, 서류 평가 등 여러 요소를 종합적으로 고려해야 합니다. 특히 실기고사 준비와 추천서 및 자기소개서 작성은 중요합니다.
+추가 정보나 자세한 조언이 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do 에서 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.0226751109923468</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 국어, 수학, 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이며, 표준 편차는 4.66입니다.
+현재 성적이 2.58이라면, 이는 표준점수로 환산하면 대략 -1.07 정도 됩니다 (표준점수가 평균 50이고 표준편차가 10일 때, 2.58은 39.42가 되기 때문입니다).
+이 점수는 매우 낮은 수치로, 동의대학교 간호학과의 평균 성적(353.48)에 비해 훨씬 낮습니다. 표준편차가 4.66이라는 것을 고려하면, 이 점수는 평균보다 약 2.3표준편차 아래에 위치합니다.
+따라서, 현재 성적만으로는 동의대학교 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 보입니다. 그러나 다음과 같은 요인들을 고려하면 다른 가능성도 있습니다:
+1. **특기사항이나 실적**: 특기사항이나 실적 등이 뛰어나다면, 이 점을 강조하여 입학사정관의 주목을 받을 수 있습니다.
+2. **면접 성적**: 면접에서도 좋은 평가를 받으면 합격 가능성은 높아질 수 있습니다.
+3. **동기부여와 진로계획**: 지원 동기에 대한 설명이 충분히 설득력 있고, 진로 계획이 명확하다면 입학사정관의 호감을 얻을 수 있습니다.
+결론적으로, 현재 성적만으로는 낮은 확률로 합격할 것으로 보입니다. 그러나 특기사항이나 면접 등 다른 요인들을 잘 활용한다면 합격 가능성은 높아질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.03604211555309517</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏工学专业录取,我们需要考虑以下几个因素:
+1. 您的高考成绩:
+   - 国语 (Korean) 标准分数
+   - 数学 (Math) 标准分数
+   - 英语 (English) 等级分数
+   - 科目 (Science) 标准分数
+2. 专业招生人数和报名人数:
+   - 游戏工学专业的招生名额是3人
+   - 报名人数为16人, 竞争比为5.33:1
+3. 录取标准:
+   - 对于一般学生入学考试 (가군 수능), 采用综合成绩排名录取
+   - 综合成绩包括国语、数学和科目(2个)的标准转换分数总和
+根据您提供的信息,您的高考成绩为7号预录编号。从竞争比来看,录取难度较大。但具体能否录取还需要看您的实际考试成绩以及与竞争对手的综合排名情况。
+建议:
+1. 努力提高高考各科成绩
+2. 关注学校发布的最新招生信息和通知
+3. 准备好所有申请材料以备不时之需
+最终结果还需等待学校的正式公布。祝您好运!</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>4.695797302512625e-79</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다. 평균 국어+수학+탐구(가산점 포함) 표준 변환 점수 합은 303.05이고, 평균 영어 등급은 3.25입니다.
+당신의 수능 성적이 4.16이라면, 이는 대략 300-310 사이의 점수가 될 것입니다 (이 숫자는 표준 변환 점수와 실제 점수 간의 대략적인 관계를 나타내는 것일 뿐 정확한 변환이 아닙니다). 
+현재 게임공학과의 경쟁률은 5.33이고, 충원 합격자는 3명입니다. 이에 비춰볼 때, 당신의 성적은 평균보다 약간 낮지만, 여전히 충분한 수준으로 보입니다.
+따라서, 추가 합격 확률을 예측하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **경쟁자들의 성적 분포**: 현재 지원자의 성적이 어떻게 분포되어 있는지 확인해야 합니다.
+2. **가산점 영향**: 만약 당신이 특정 과목에서 높은 가산점을 받을 수 있다면, 이는 합격 확률을 높일 수 있습니다.
+3. **전형 방식**: 게임공학과의 전형 방식 (예: 수능 성적 + 면접 등)에 따라 추가 합격 가능성도 달라질 수 있습니다.
+이러한 요소들을 고려하면, 당신의 경우 4-6번 정도의 추가 합격 가능성이 있다고 추정할 수 있습니다. 그러나 이는 매우 대략적인 예측이며, 실제 결과는 여러 변수에 의해 결정됩니다.
+추가적으로, 동의대학교의 정시 전형에서는 종종 면접 등 다른 평가 요소들이 포함되므로, 성적 외에도 준비를 철저히 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.05212479651492412</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일 전형의 성적 기준을 확인해보겠습니다.
+주어진 정보에 따르면, 경영정보학과의 경우:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 307.84였습니다.
+- 영어 등급의 평균은 3.56였습니다.
+성적 3.75는 영어 등급에 해당합니다. 
+따라서, 성적이 3.56보다 높으므로, 이 경우로는 최초등록자로 가능할 것으로 보입니다.
+하지만 정확한 판단을 위해서는:
+1. 해당 학과의 최종등록자의 성적 분포를 확인해야 합니다.
+2. 모집인원과 지원 인원의 비율 등을 고려해야 합니다.
+3. 경쟁률이 높다면, 평균 이상의 점수를 가지고 있어야 안전합니다.
+따라서, 3.75라는 성적은 최초등록자로 가능할 것으로 보이나, 확실한 답변을 위해서는 해당 학과의 정확한 성적 분포와 모집인원 등을 확인해보시는 것이 좋습니다. 필요하다면, 대학 입학처에 직접 문의하시는 것도 방법입니다.
+추가 정보를 제공해주신다면 더 정확한 답변을 드릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.1197969707340416</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집요강을 확인해보겠습니다.
+1. **모집단위 및 전형**: 경영정보학과는 일반학생전형으로 모집됩니다.
+2. **성적 요건**:
+   - 수능 성적: 4.2는 매우 높은 점수입니다 (평균 3.5~4.0 사이).
+   - 학생부 종합 평가 영역: 공동체역량, 학업역량, 전공적합성 중 어느 영역에서 좋은 성적이 나와야 합니다.
+3. **학생부 종합 평가**:
+   - 2024학년도에는 학생부 종합 평가 영역이 변경되었습니다: 공동체역량, 학업역량, 전공적합성입니다.
+4. **전형 요소 반영 비율**:
+   - 수능 성적은 100% 반영됩니다.
+   - 학생부 종합 평가는 각 영역별로 점수를 부여받습니다 (공동체역량, 학업역량, 전공적합성).
+5. **최초등록자 기준**:
+   - 최초 등록자는 수능 성적이 높은 경우 일반적으로 충분히 가능합니다.
+   - 학생부 종합 평가에서도 좋은 점수를 받는 것이 중요합니다.
+따라서, 4.2의 수능 성적을 가지고 경영정보학과에 최초등록하는 것은 가능하지만, 학생부 종합 평가에서 좋은 결과를 받아야 합니다. 특히 공동체역량, 학업역량, 전공적합성 등에서 높은 점수를 받는 것이 중요합니다.
+추가적으로, 경쟁률과 지원자들의 성적이 어떻게 분포되어 있는지 확인해보시고, 본인의 강점과 약점을 잘 파악하여 서류 준비와 면접 준비를 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.03797794774377668</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 최종등록자들의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.77
+- 영어 등급의 평균: 4.33
+이러한 데이터를 바탕으로, 정시 성적이 5.33인 경우 동의대학교 경영정보학과에 합격 가능성은 낮습니다. 최종등록자의 평균 점수가 상당히 높기 때문입니다.
+하지만, 다음과 같은 요소들이 있을 때는 합격 가능성이 조금 더 높아질 수 있습니다:
+1. **특이성**: 지원자가 다른 모집단위에서 좋은 성적을 거둔 경험이 있다면 이점을 활용할 수 있습니다.
+2. **면접 성적**: 면접에서도 좋은 점수를 받으면 전체 평가에서 유리해질 수 있습니다.
+3. **추천서 및 자기소개서**: 강력한 추천서나 잘 작성된 자기소개서로 지원자의 적합성을 강조할 수 있습니다.
+따라서, 정시 성적이 5.33이라면 경영정보학과에 합격하기는 어렵지만, 위의 요소들을 잘 활용한다면 조금 더 높은 가능성으로 접근할 수 있을 것입니다. 하지만 확실한 것은 아니므로, 최종 결정을 내리기 전까지는 여러 가지 방법을 고려해보시는 것이 좋습니다.
+추가적으로, 동의대학교 입학 홈페이지나 관련 공지사항을 확인하시거나, 학교 관계자에게 직접 문의하시는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.04630877228468626</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 정시 모집군과 모집단위에 따라 성적 기준이 다를 수 있습니다. 주어진 정보만으로는 정확한 판단을 하기 어렵지만, 일반적으로 바이오응용공학부는 경쟁률이 높은 학과로 알려져 있습니다.
+주요 정보:
+- 2024학년도 모집단위: 바이오의약공학과, 의생명공학과, 식품공학과
+- 최초합격자 성적 평균: 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 312.33이며, 영어 등급의 평균은 3.33입니다.
+주요 참고사항:
+1. **성적 평균**: 주어진 정보에 따르면, 바이오응용공학부 최초합격자의 성적 평균은 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균이 312.33입니다. 이는 3.33보다 높습니다.
+2. **영어 등급**: 주어진 정보에 따르면, 바이오응용공학부 최초합격자의 영어 등급 평균은 3.33입니다. 이는 동일합니다.
+3. **경쟁률 및 모집인원**: 바이오응용공학부의 경쟁률과 모집인원을 고려해야 합니다. 예를 들어, 바이오의약공학과의 경우 모집 인원은 46명이고 지원 인원은 238명으로, 경쟁률이 높습니다.
+결론적으로:
+- **성적**: 주어진 성적이 3.33이라면, 최초합격자 평균보다 낮지만, 영어 등급은 동일합니다.
+- **경쟁률 및 모집인원**: 바이오응용공학부의 경쟁률과 모집인원을 고려해야 합니다.
+따라서, 성적이 3.33이라면 최초합격자 평균보다 낮지만, 실제 가능성을 판단하기 위해서는:
+1. **최종등록자의 성적 분포**를 확인해야 합니다.
+2. **경쟁률과 모집인원**을 고려해야 합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.03001700470661902</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집요강을 확인해보겠습니다. 하지만 정확한 답변을 드리기 위해서는 방사선학과의 정시 모집군, 모집인원, 그리고 성적 기준 등을 알아야 합니다.
+일반적으로 방사선학과는 다음과 같은 특징이 있습니다:
+1. **정시 모집군**: 대부분의 대학에서는 방사선학과를 (가)군으로 모집합니다.
+2. **성적 기준**: 방사선학과는 일반적으로 국어, 수학, 영어 등 주요 과목에서 높은 성적이 요구됩니다.
+현재 제출된 정보로는:
+- **성적**: 4.4등급
+- **모집군**: (가)군
+방사선학과의 정시 모집군이 (가)군이고, 성적이 4.4정도라면, 이 정도 성적은 충분히 경쟁력을 갖추고 있습니다.
+하지만 정확한 답변을 위해서는:
+1. **2024학년도 방사선학과의 정시 모집군**: (가)군인지 확인해야 합니다.
+2. **성적 기준**: 해당 학과의 최저 성적 기준을 확인해야 합니다.
+따라서, 다음과 같은 정보를 추가로 수집해보세요:
+- 2024학년도 방사선학과의 정시 모집군
+- 2024학년도 방사선학과의 성적 기준
+이런 정보들을 바탕으로 최종적인 판단을 내릴 수 있을 것입니다.
+추가로, 해당 대학의 입학처 웹사이트나 학교 입학상담실에 문의하시면 더 정확한 정보를 얻으실 수 있습니다. 
+https://ipsi.deu.ac.kr/main.do
+이 링크를 통해 추가적인 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.03511857993607573</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률을 고려하면, 정시 모집에서 2.66이라는 표준 변환 점수는 상대적으로 낮은 수치입니다.
+방사선학과의 경우:
+- 모집인원: 5명
+- 지원인원: 36명
+- 경쟁률: 7.20
+이와 관련하여:
+1. **경쟁률**: 7.20이라는 높은 경쟁률을 고려하면, 2.66의 점수는 상대적으로 낮습니다.
+2. **표준 편차**: 표준 변환 점수 합의 표준 편차가 2.74로 비교적 낮아, 이 점수보다 높은 수치를 가진 지원자들이 많을 가능성이 있습니다.
+따라서:
+- **위험성**: 2.66이라는 점수는 경쟁률이 높고 표준 편차가 작은 방사선학과에서 상대적으로 낮은 수치입니다.
+- **추천**: 정시 모집에서는 다른 과목이나 학교생활기록부 등 서류평가 영역을 강화하여 지원 동기를 보여주는 것이 좋습니다.
+결론적으로, 2.66이라는 점수는 방사선학과에서 상대적으로 낮은 수치입니다. 정시에서는 다른 과목이나 활동을 통해 지원 동기를 보여주는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.09574999148800351</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수입니다만, 경찰행정학전공 농어촌 전형에 합격하기 위해서는 여러 요소를 고려해야 합니다.
+1. **학교생활기록부 평가**: 농어촌 학생으로서 농어촌 지역에서의 거주와 교육 경험이 중요합니다. 이 부분이 잘 반영되어 있다면 큰 도움이 될 것입니다.
+2. **성적 평균**: 3.66은 좋은 성적이지만, 전형에 따라 다른 학교에서는 더 높은 점수가 요구될 수 있습니다.
+3. **추천서 및 자기소개서**: 이 부분도 중요합니다. 추천서는 교사나 지도자의 평가를 받고, 자기소개서는 지원동기와 미래 계획을 잘 표현해야 합니다.
+4. **면접 성적**: 농어촌 학생 전형에서는 면접에서도 좋은 점수를 받아야 합니다. 특히 지역에 대한 이해와 농어촌 생활 경험 등을 잘 설명할 수 있어야 합니다.
+5. **추천서 평가**: 추천서는 교사나 지도자의 평가를 받습니다. 이 부분에서 긍정적인 평가를 받아야 합니다.
+6. **지역적 배려**: 농어촌 학생으로서의 특별한 배려가 있을 수 있습니다. 이 점을 잘 활용하면 유리할 수 있습니다.
+결론적으로, 3.66이라는 좋은 성적이 있다면, 지역적 배려와 추천서 및 자기소개서에서 긍정적인 평가를 받는다면 합격 가능성은 높습니다. 하지만 각 학교의 정시 모집요강을 꼼꼼히 확인하고, 준비를 철저하게 해야 합니다.
+추가적으로, 입학사정관들이 다양한 요소를 종합적으로 평가하기 때문에, 자신만의 독특한 경험과 열정을 잘 표현하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.1075329885035773</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 대부분의 경우, 이 정도 순위에서는 합격하기가 어려울 가능성이 큽니다. 하지만 정시에서 합격 여부는 여러 요인에 따라 결정되므로 완전히 배제할 수는 없습니다.
+다음과 같은 방법으로 준비를 해보세요:
+1. **면접 준비**: 면접은 중요한 부분입니다. 지원동기, 학업계획, 전공적합성 등에 대해 잘 준비해두세요.
+2. **서류 검토**: 서류 평가에서도 좋은 점수를 받을 수 있도록 학교생활기록부와 기타 제출서류를 철저히 검토하고 정리하세요.
+3. **면접 질문 대비**: 면접 질문 공통문항을 미리 준비해두세요. 예상 질문에 대해 답변할 수 있게 연습해보세요.
+또한, 학교의 전형 방식과 평가 기준을 잘 이해하고, 자신의 강점을 부각시킬 수 있도록 노력하는 것이 중요합니다. 
+결국, 최선을 다해 준비한다면 어느 정도 가능성은 있을 것입니다. 하지만 매우 높은 순위에서 합격하기는 어렵다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1930066121550334</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부의 정시모집 경쟁률과 합격 기준을 정확히 파악하기 위해서는 최신 입학정보를 확인해야 합니다. 하지만 일반적으로 다음과 같은 요소들을 고려할 수 있습니다:
+1. 전년도 성적 평균:
+   - 2023년 법경찰행정학부의 정시모집 경쟁률은 약 4:1이었습니다.
+   - 이에 따라 평균 합격 점수는 대략 90점대 중반에서 100점대 초반까지 변동할 수 있습니다.
+2. 전형별 성적 요건:
+   - 일반전형: 국어, 수학, 영어 등급이 각각 3등급 이상이며, 합계 등급이 4등급 이상일 경우 유리합니다.
+   - 경기실적우수자전형: 경기 실적 우수자로 인정받아야 합니다.
+3. 전반적인 성적 요건:
+   - 국어: 80점 이상
+   - 수학: 75점 이상
+   - 영어: 60점 이상
+4. 학생부 평가 요소:
+   - 공동체역량, 학업역량, 전공적합성 등이 중요합니다.
+5. 추가적인 요인:
+   - 인성 및 특기사항 등 개인적 성장 기록
+   - 면접 성과
+따라서 안정적으로 들어갈 수 있는 평균 성적은 대략 다음과 같습니다:
+- 국어: 80점 이상
+- 수학: 75점 이상
+- 영어: 60점 이상
+- 합계 등급: 4등급 이상 (국어, 수학, 영어 각각 3등급 이상)
+하지만 이는 예측이며 실제 입시 결과는 여러 요인에 따라 변동될 수 있습니다. 최신 정보와 정확한 성적 기준을 확인하기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 좋습니다. 또한, 모의고사 성적 분석과 면접 준비도 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3580455009513766</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 경우, 정시 모집군은 "가"군으로 분류되며, 해당 단과대학의 최초합격자와 최종등록자의 경쟁률을 살펴보겠습니다.
+1. **최초합격자**:
+   - 2024년도 모집단위: 보육가정상담학과
+   - 모집 인원: 3명
+   - 지원 인원: 16명
+   - 경쟁률: 5.33 (이와 동일)
+2. **최종등록자**:
+   - 2024년도 모집단위: 보육가정상담학과
+   - 모집 인원: 3명
+   - 지원 인원: 16명
+   - 경쟁률: 5.33 (이와 동일)
+따라서, 정시 산출 등급이 5.33인 경우, 보육가정상담학과에 합격할 가능성은 매우 높습니다. 최초합격자와 최종등록자의 경쟁률이 일치하고, 지원 인원도 동일하기 때문입니다.
+하지만, 정확한 합격 여부는 수능 성적 외에도 학생부 교과성적, 실기/실적 등 다양한 요소가 고려되기 때문에, 최종 결정은 입학사정관의 심사를 통해 이루어집니다. 따라서, 지원 후 최종 합격 여부를 확인하는 것이 가장 정확한 방법입니다.
+추가적으로, 동의대학교의 경우, 수능 성적이 높을수록 유리하므로, 5.33이라는 등급은 좋은 성적으로 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.1216797532090432</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 3차 등록**: 2024. 02. 15.(목) 09:00~16:00
+현재까지의 정보로는 충원 합격자 발표가 예정되어 있으며, 이에 따라 합격 가능성은 있습니다. 그러나 정확한 합격 여부를 알기 위해서는:
+1. **발표 일시**: 2024년 2월 15일 오전 9시 이후 입학안내 홈페이지에서 개별 조회해야 합니다.
+2. **등록 기간**: 발표 후 해당 날짜 내에 등록을 완료해야 합니다.
+또한, 충원 합격자 발표가 이루어진 후에도 추가로 3차 충원이 있을 수 있으므로, 최종적으로는 입학관리팀이나 대학 홈페이지를 통해 확인하는 것이 좋습니다. 
+현재까지의 정보만으로는 예비 12번을 받았다는 점에서 합격 가능성은 있지만, 확실한 것은 발표 이후에 알 수 있습니다. 따라서 기다리면서 준비를 계속하시되, 최종 결과가 발표될 때까지 기대하면서 대비하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.3975475494081956</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 수능 점수는 상당히 좋은 성적입니다. 특히 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받았다면 더욱 좋습니다.
+유아교육학과에 지원할 때 다음과 같은 요소들을 고려해볼 필요가 있습니다:
+1. **전형 특성**: 유아교육학과는 일반적으로 인성과 교육적 소질을 중시합니다. 따라서 학업 성적이 높은 만큼, 공동체역량이나 학업태도 등 다른 평가 영역에서도 좋은 점수를 받는 것이 중요합니다.
+2. **전형 요소**: 유아교육학과의 경우, 서류평가와 면접평가가 중요한 역할을 합니다. 특히 공동체역량과 학업역량이 주요 평가 항목입니다. 따라서 학교생활기록부에서 협력적 태도나 교사의 긍정적인 평가를 받았다면 이점이 있습니다.
+3. **면접 준비**: 면접에서는 지원동기와 학업계획, 그리고 유아교육에 대한 열정 등을 잘 전달해야 합니다. 실제 경험과 성장과정을 구체적으로 설명하는 것이 좋습니다.
+4. **추천서 및 추천인**: 가능하다면 교사나 직원의 추천서를 받는 것도 도움이 될 수 있습니다.
+5. **추가 활동**: 자원봉사, 교육 관련 프로젝트 등 추가 활동을 통해 자신의 열정과 능력을 보여줄 수 있는 기회도 활용해보세요.
+4.75의 성적은 충분히 유아교육학과에 지원할 만한 수준입니다. 하지만 다른 평가 요소들도 잘 준비하고, 면접에서도 자신감을 가지고 자신의 장점을 잘 전달한다면 좋은 결과를 얻을 가능성이 큽니다.
+추가로, 입학사정관들이 다양한 측면에서 지원자를 평가하기 때문에, 단순히 수능 점수만으로 판단하지 않고, 전체적인 프로필을 고려합니다. 따라서 자신감 있게 지원하시고, 모든 준비를 철저하게 해보세요!</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1848057294261012</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4.16 등급은 상당히 좋은 점수입니다. 하지만, 동의대학교 보육가정상담학과의 정시 경쟁률과 모집인원 등을 고려해보면 다음과 같은 점들을 주목해야 합니다:
+1. 경쟁률:
+- 2024년도 지원자 수와 모집인원을 확인해야 합니다.
+- 최근 몇 년간의 평균 경쟁률을 참조하면 도움이 됩니다.
+2. 등급 분포:
+- 동일한 학교 내 다른 전형(학생부종합, 특기자 등)과의 등급 경쟁도 고려해야 합니다.
+- 최근 몇 년간의 최저등급을 확인해보세요.
+3. 서류 및 면접 평가:
+- 보육가정상담학과는 종종 학생부와 면접에서 중요한 역할을 하므로, 서류평가 점수도 중요합니다.
+- 동일 전형의 서류평가 등급 분포를 확인해보세요.
+4. 정원 외 모집:
+- 정원 외로 선발되는 경우가 많으니, 이를 고려해야 합니다.
+5. 학교별 특성:
+- 동의대학교의 전체적인 경쟁률 추세와 보육가정상담학과의 특성을 파악하세요.
+6. 예상 등급 변동:
+- 수능 실시일이 다가오면 등급 변동 가능성도 고려해야 합니다.
+결론적으로, 4.16 등급은 좋은 기반을 제공하지만, 정확한 합격 확률을 예측하기 위해서는 위의 요소들을 종합적으로 고려해야 합니다. 최선을 다해 준비하고, 가능한 모든 정보를 수집하여 결정을 내리는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0608339526398568</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다:
+1. **모집단위 및 모집인원**:
+   - 단과대학: ICT공과대학
+   - 모집단위: 소프트웨어융합학과
+   - 모집인원: 7명
+2. **전형방법**:
+   - 정시모집군: 다군 수능(일반학생전형)
+   - 전형요소 반영비율: 수능 100%
+3. **수능 반영 영역 및 가산점**:
+   - 국어, 수학, 영어, 탐구 등급을 모두 반영합니다.
+   - 수학(미적분 또는 기하) 응시자에게는 수학 취득 표준점수의 10% 가산점이 있습니다.
+4. **경쟁률 및 합격 평균 등급**:
+   - 실제 경쟁률과 합격 평균 등급은 정확히 알려지지 않지만, 일반적으로 다음과 같은 수준을 받아야 합니다:
+   - **수능 등급 평균**: 8등급 이상
+     - 국어: 1등급
+     - 수학(미적분 또는 기하): 2등급
+     - 영어: 3등급
+     - 탐구: 4등급
+   - **수능 표준점수 평균**: 90% 이상
+이는 실제 경쟁률과 합격 등급을 반영한 예시이며, 정확히 알려지지 않은 정보입니다. 최종 지원결과를 얻기 위해서는 개인의 수능 성적과 교육경력 등을 고려해야 합니다.
+추가로, 2024학년도에는 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)라는 학과명칭 변경이 이루어졌습니다. 이에 따라 정시모집군이 변경되었을 수 있으므로, 최신 입학정보를 확인하시기 바랍니다.
+참조: [2024학년도 주요 변경사항]에서 구분은 학과 분리(학부→학과), 학부 통합, 학과(전공) 명칭 변경이며, 2023학년도은 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학)였으며, 2024학년도에는 기계공학과, 로봇자동화공학과, 자동차공학과가 신설되었습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>3.216701265537245e-13</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2024학년도의 입학전형에서 소프트웨어융합학과에 지원할 때, 면접 점수와 서류 평가 점수가 각각 중요한 역할을 합니다. 특히, 서류평가 영역 중 '특기사항'이나 '창의적 체험활동' 등 세부 특기사항은 매우 중요하게 평가됩니다.
+### 1. 면접 점수와 서류 평가의 비중
+- **면접 점수**: 40점 (전공적합성 영역)
+- **서류 평가 점수**: 60점 (공동체역량, 학업역량, 전공적합성)
+따라서 서류평가의 비중이 더 높습니다. 면접에서는 지원자의 문제해결 능력과 전공적합성을 확인하려고 합니다.
+### 2. 세부 특기사항 준비
+- **세부 특기사항**: 이 부분은 지원자가 어떤 활동을 통해 성장했는지, 그리고 그 활동이 어떻게 지원자의 전공 적합성에 기여하는지를 잘 보여주는 것이 중요합니다.
+- **예시**: 
+  - 창의적 체험활동: 동아리 활동이나 프로젝트 참여 경험
+  - 학업역량: 고교에서의 성취와 흥미있는 활동, 문제 해결 능력
+  - 전공적합성: 관련 교내 활동이나 인턴십 경험
+### 3. 서류 준비
+- **서류**: 
+  - **고교 졸업(예정)자**: 학생부 온라인 제공 동의자가 필요합니다.
+  - **검정고시출신자 / 외국고교 졸업(예정)자**: 검정고시 합격증서, 성적증명서 등이 필요합니다.
+### 4. 추가 준비사항
+- **면접 질문 공통문항**: 지원동기와 입학 후 계획, 학업역량에 대한 어려움과 해결 방안, 전공적합성 관련 활동 등을 잘 준비해야 합니다.
+- **실제 경험**: 실제 활동을 통해 얻은 성취와 배운 점들을 구체적으로 서술해야 합니다.
+### 5. 참고 자료
+- **입학사정관의 평가**: 입학사정관들은 지원자의 전반적인 능력과 적합성을 종합적으로 판단하므로, 실제 활동을 통해 얻은 성취와 배운 점들을 구체적으로 서술하는 것이 중요합니다.
+이러한 정보를 바탕으로 소프트웨어융합학과에 지원할 때 세부 특기사항을 잘 준비하고, 면접에서도 자신의 능력과 적합성을 잘 보여주는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.001244955803869579</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024年东国大学软件工程学部的录取标准**：根据提供的信息，该专业的录取情况如下：
+   - 招生人数：45人
+   - 报名人数：146人
+   - 竞争比：3.25
+   - 最终合格者平均综合转换分数（含加分）：434.70
+2. **你的成绩**：
+   - 综合转换分数（含加分）：4.08
+3. **比较标准和你的情况**：
+   - 从提供的数据来看，最终合格者的平均综合转换分数为434.70。
+   - 而你的综合转换分数是4.08。
+显然，你的成绩（4.08）远低于该专业最终合格者的平均综合转换分数（434.70）。因此，在这种情况下，你被录取的可能性非常低。不过，这只是一个基于提供的数据的初步判断，并不完全排除所有可能性。实际录取情况可能会因多种因素而有所不同。
+建议：
+- 你可以参考其他同学的成绩和经验。
+- 如果可能的话，咨询东国大学招生办公室获取更准确的信息。
+- 考虑是否还有其他专业或学校可以申请。</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.03593518969513122</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 소프테이션 융합학부(소프트웨어공학부)의 경우 다음과 같은 특징을 가지고 있습니다:
+1. **전형 유형**: 주로 수능(일반학생전형)과 학생부종합(조기취업형계약학과전형)으로 이루어져 있습니다.
+2. **수능 평균 등급**:
+   - **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균**: 450.71
+   - **영어 등급 평균**: 3.30
+   - **수능 4개 영역 등급 평균**: 4.12
+3. **학생부종합 평균 등급**:
+   - **공동체역량 평균 등급**: 111점 (등급 기준)
+   - **학업역량 평균 등급**: 222점
+   - **전공적합성 평균 등급**: 240점
+이러한 정보를 바탕으로, 정시 모집에서 5등급을 받은 학생들이 소프트웨어융합학부에 지원하는 것은 가능하지만 매우 경쟁률이 높아 보입니다. 
+- **수능 평균 등급**: 4.12는 5등급보다 약간 높습니다.
+- **학생부종합 평균 등급**: 공동체역량, 학업역량, 전공적합성 모두 3등급 이상이므로 이 부분에서도 경쟁력이 있습니다.
+따라서 5등급을 받은 학생이 소프트웨어융합학부에 지원하는 것은 가능하지만, 매우 높은 경쟁률을 고려해야 합니다. 성적 외에도 다양한 평가 요소를 잘 준비하고 자기소개서와 면접 등에서 좋은 결과를 얻어야 할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.127573946650992</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수는 상당히 높은 점수입니다. 하지만 동의대학교 신소재공학과에 입학하기 위해서는 여러 요인을 고려해야 합니다.
+1. **전형방법**: 동의대학교의 전형 방법은 수능 성적, 학생부 등급, 그리고 일부 경우 실기 성적이 반영됩니다. 특히, 신소재공학과는 일반적으로 과학 영역에서 높은 점수를 요구합니다.
+2. **전형방법 세부사항**:
+   - **국어**: 4.28이라는 점수는 상당히 높습니다.
+   - **수학**: 신소재공학과에서는 수학의 중요성이 크므로, 이 영역에서도 높은 점수가 필요합니다.
+   - **영어**: 등급이 4등급 이상이라면 충분할 것입니다. 하지만 최상위권 학생들 사이에서 경쟁이 치열하기 때문에 5등급 이상을 추천드립니다.
+   - **과탐 (과학)**: 신소재공학과에서는 과학 영역의 성적이 중요합니다. 특히, 물리와 화학 등 관련 과목에서 높은 점수를 받는 것이 유리할 것입니다.
+3. **경쟁률**: 동의대학교의 경쟁률이 매우 높습니다. 따라서 4.28이라는 점수만으로는 확실한 입학을 보장받기는 어렵습니다. 하지만 충분히 좋은 성적을 가지고 있으므로, 실기나 학생부 등 다른 요인들을 잘 준비한다면 좋은 결과를 얻을 수 있습니다.
+4. **추천사항**:
+   - **학생부**: 학생부에서 과학 관련 활동이나 프로젝트 경험 등을 잘 기재해보세요.
+   - **실기**: 실기 성적이 있다면 이를 잘 준비하고 점수를 받으세요.
+   - **추천서 및 자기소개서**: 이 부분에서도 과학 분야의 열정과 능력을 잘 표현해보세요.
+결론적으로, 4.28이라는 점수는 좋은 기반이지만, 다른 요인들을 잘 준비하고 경쟁력을 높이는 것이 중요합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 전화로 문의하시는 것을 추천드립니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.09586173822615911</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동아대학교의 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 일반적으로 수능 전형은 수능 점수를 주요 평가 기준으로 합니다.
+하지만, 일부 단과대학이나 모집단위에서 자기소개서를 제출하도록 하는 경우도 있으므로, 정확한 정보를 얻기 위해서는 동아대학교 입학처 웹사이트나 전형 안내 자료를 확인하는 것이 좋습니다. 특히, 최신 정보와 세부 사항은 공식 홈페이지에서 확인하시길 권장드립니다.
+만약 자기소개서가 필요하다면, 일반적으로 다음과 같은 내용을 포함할 수 있습니다:
+1. 지원 동기
+2. 학업 계획 및 목표
+3. 특기사항이나 활동 경력
+4. 전공과의 연관성
+하지만 이는 선택 사항이며, 기본 평가 기준은 수능 점수에 집중해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>9.633718883025315e-06</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 등급으로 보아야 합니다. 한국사와 사회(역사/도덕 포함) 영역을 제외하고 나머지 3개 영역의 등급 평균이 4.5 이상이라는 의미입니다.
+동의대학교의 정시모집에서 수능 점수 기준은 다음과 같습니다:
+1. 가군 (일반학생전형):
+   - 인문사회과학, 상경대학: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 의료·보건·생활, 공과대학, ICT융합공과대학: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수 + 가산점
+2. 나군 (일반학생전형):
+   - 인문사회과학, 상경대학, 한의예과, 패션디자인학과: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 의료·보건·생활대학, 공과대학, ICT융합공과대학: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수 + 가산점
+3. 다군 (일반학생전형):
+   - 인문사회과학, 상경대학: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 공과대학, ICT융합공과대학: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수 + 가산점
+4. 나군 실기/실적 (경기실적우수자전형):
+   - 결석일수 0~2일: 120점
+   - 결석일수 3~6일: 90점
+   - 결석일수 7~12일: 60점
+   - 결석일수 13~20일: 30점
+   - 결석일수 21일 이상: 0점
+4.5라는 등급 평균은 대부분의 모집단위에서 충분한 점수를 보여줍니다. 그러나 추가모집 여부와 모집인원, 경쟁률 등을 고려해야 합니다.
+추가적으로:
+- 경쟁률이 높은 모집단위에서는 4.5 등급 평균만으로는 낮은 확률로 합격할 수 있습니다.
+- 경쟁률이 낮거나 추가모집인 경우, 4.5 이상의 등급 평균은 좋은 점수입니다.
+따라서, 다음과 같은 조치를 취해보시는 것이 좋습니다:
+1. 추가모집 정보 확인: 동의대학교 웹사이트에서 추가모집 정보를 확인하세요.
+2. 경쟁률 확인: 각 모집단위별 경쟁률을 확인하여 합격 가능성 평가.
+3. 지원 전략 수립: 경쟁률이 높은 경우, 다른 대학이나 전형도 고려해보세요.
+결론적으로 4.5 등급 평균만으로는 확실한 합격 보장은 어렵지만, 추가모집 또는 경쟁률이 낮은 모집단위에서는 충분히 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.1382106115448024</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)의 모집요강을 보면, 정시모집군은 "가군(일반학생전형)"이며, 수능 반영방법은 다음과 같습니다:
+- 국어: 25% 반영
+- 수학: 25% 반영 (확률과통계 or 미적분 or 기하 중 선택)
+- 영어: 25% 반영
+- 탐구(사회탐구 or 과학탐구 중 2개 과목): 25% 반영
+수능 성적 반영방법은 각 영역별로 25%씩 반영되며, 상위 3개 영역을 선택하여 평균 점수가 계산됩니다.
+하지만 정확한 등급 기준을 제공하기 위해서는 해당 학과의 모집인원, 지원자들의 수능 성적 분포 등을 고려해야 합니다. 일반적으로 동의대학교 신소재공학과의 경우, 경쟁률이 높아서 4등급 이상의 영어 등급과 300점 이상의 국어+수학+탐구(2개) 표준변환 점수가 필요할 것으로 예상됩니다.
+하지만 이는 추정이며, 실제 합격 가능 기준은 정시모집일 때 발표되는 최종등록자 및 최초합격자의 성적 분포를 참고해야 합니다. 따라서 가장 정확한 정보는 동의대학교 입학처 웹사이트나 모의고사 결과 등을 통해 확인하는 것이 좋습니다.
+추가적으로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보와 자세한 모집요강을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.04679916400353719</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집단위별 경쟁률, 충원 합격자 수 등의 정보를 바탕으로 분석해보겠습니다.
+1. **신소재공학과의 경쟁률 및 충원 합격자 수**:
+   - 신소재공학과는 2024년 모집 인원이 56명이고 지원 인원은 81명으로, 경쟁률은 약 1.45:1입니다.
+   - 충원 합격자는 25명으로, 이는 전체 지원자의 약 31%에 해당합니다.
+2. **최종 등록자와 최초 합격자의 성적 분포**:
+   - 최종 등록자의 경우 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균이 271.64이며, 표준 편차는 19.52입니다.
+   - 최초 합격자의 경우 해당 평균은 286.35이며, 표준 편차는 10.96입니다.
+3. **성적 분포와 경쟁률**:
+   - 신소재공학과의 경쟁률이 약 1.45:1으로 상대적으로 낮은 편입니다.
+   - 이에 따라, 표준점수가 447점인 경우 충원 합격 가능성은 있습니다만, 확실한 것은 아닙니다.
+4. **성적 분포와 경쟁률의 관계**:
+   - 신소재공학과는 모집 인원이 많고 지원 인원도 상대적으로 많은 편입니다.
+   - 이에 따라, 표준점수가 447점인 경우 충원 합격 가능성은 있지만, 확실한 것은 아닙니다. 경쟁률과 성적 분포를 고려할 때, 약간의 우위가 필요합니다.
+5. **최종 등록자와 최초 합격자의 성적 비교**:
+   - 최종 등록자의 평균 점수가 271.64점이고 표준 편차는 19.52입니다.
+   - 이에 비해, 신소재공학과의 충원 합격자들의 평균 점수와 표준 편차를 고려하면, 447점은 상당히 높은 점수로, 경쟁률이 낮아서라도 충원 합격 가능성은 있습니다.
+**결론**: 
+- 신소재공학과의 경우 경쟁률이 낮고 모집 인원이 많으므로, 표준점수가 447점인 경우 충원 합격 가능성은 있지만 확실하지 않습니다.
+- 실제 결과는 지원자의 전체 성적 분포와 입시 전략 등 다양한 요소에 따라 결정되므로, 최종적으로는 입학사정관의 평가를 기다려보는 것이 좋습니다.
+추천: 
+- 추가로 수능을 보충하여 더 높은 점수를 받는 것을 고려해볼 수 있습니다.
+- 지원 전략과 함께 대비를 잘 해두시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.006335723347040335</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환될 경우, 동의대학교 신소재공학과에 지원할 때 합격 가능성은 낮지만 아직 불가능한 것은 아닙니다. 신소재공학과는 수능 반영 비율이 높고, 특히 국어와 수학 영역에서 좋은 성적을 요구하기 때문에 4.1~4.2 등급으로도 합격 가능성은 있습니다.
+다음은 몇 가지 고려사항입니다:
+1. **수능 성적**: 신소재공학과는 수능 반영 비율이 높기 때문에, 수능 국어와 수학의 성적이 중요합니다. 4.3 등급을 유지하거나 조금 더 높여야 합니다.
+2. **등급 변환**: 동의대학교에서 제공하는 등급 변환표를 참조하여 실제 변환이 어떻게 이루어질지 확인해보세요. 이는 합격 가능성에 큰 영향을 줄 수 있습니다.
+3. **전형 요소**: 서류평가와 면접 등의 비중도 고려해야 합니다. 서류 준비와 면접 준비가 충분히 되어 있다면, 성적이 조금 낮더라도 합격 가능성이 있습니다.
+4. **경쟁률**: 신소재공학과의 경쟁률을 확인하여 현재의 성적으로는 어느 정도의 확률로 합격할 수 있는지 판단해보세요.
+5. **추천서 및 자기소개서**: 이 부분에서 강점을 보여줄 수 있다면, 합격 가능성은 높아질 것입니다.
+6. **예비 지원 대상**: 여러 대학과 전형을 다양하게 준비하는 것이 좋습니다. 예비 지원 대상으로 다른 대학이나 전형도 고려해보세요.
+결론적으로, 4.1~4.2 등급으로 신소재공학과에 합격할 수는 있지만 확률은 낮습니다. 성적을 최대한 높이는 것이 중요하며, 서류와 면접 준비를 철저히 해야 합니다. 추가적으로 다른 대학이나 전형도 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.234713917666194</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형에 대한 최종 등록자의 성적 정보를 확인해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 293.11
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 14.35
+- **영어 등급의 평균**: 4.53
+- **영어 등급의 표준 편차**: 0.80
+- **수능 4개 영역 등급의 평균**: 5.25
+- **수능 4개 영역 등급의 표준 편차**: 0.35
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이 정보를 바탕으로, 인공지능학과 수능 일반학생전형에 지원하려는 경우 다음과 같은 성적을 목표로 설정하는 것이 좋습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 403.85 이상 추천
+- **영어 등급**: 4.53 이상 추천
+이러한 성적을 기반으로 준비하시면 좋은 결과를 얻을 수 있을 것입니다. 추가로 실기고사나 다른 전형요소도 고려해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.3856717023990173</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교의 정시에서 어느 학과나 모집단위에 지원할 수 있는지 정확히 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **모집단위와 전형 유형**: 동의대학교의 각 학과별로 모집단위와 전형 방식이 다릅니다. 예를 들어, 일반학생전형, 평생학습자전형, 재직자전형 등이 있습니다.
+2. **성적 반영 영역 및 가산점**: 동의대학교는 수능 성적이 주요 평가 기준 중 하나입니다. 특정 학과나 모집단위에서는 수능 성적이 100% 반영되기도 하고, 다른 전형에서는 비율이 다릅니다.
+3. **모집인원 및 지원자 경쟁률**: 각 모집단위의 모집인원과 지원자의 수에 따라 경쟁률이 달라질 수 있습니다.
+4. **전형요소 반영비율**: 일부 학과나 모집단위에서는 서류평가, 면접 등 다른 요소가 포함되어 평가됩니다.
+5. **최저학력기준**: 일부 전형에서는 최저학력기준이 정해져 있으며, 이 기준을 충족해야 합니다.
+주어진 정보만으로는 특정 학과나 모집단위에 지원할 수 있는지 판단하기 어렵습니다. 그러나 5.27이라는 성적은 상당히 높은 점수로, 대부분의 일반학생전형에서는 경쟁률이 낮아서 충분히 지원 가능할 것으로 보입니다.
+추천되는 방법은 다음과 같습니다:
+1. **동의대학교 홈페이지를 확인**: 각 모집단위와 전형 방식에 대한 자세한 정보를 확인하세요.
+2. **모집요강을 검토**: 해당 학과나 모집단위의 모집요강을 꼼꼼히 읽어보세요.
+3. **문의하기**: 불확실한 점이 있다면 동의대학교 입학처에 문의해 보세요.
+더 자세한 조언을 원하시면, 위에서 언급한 정보를 제공해 주시거나, 필요하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 직접 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1085834431231202</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 소프트웨어공학부에 지원하려면, 수능 성적이 중요한 요소 중 하나입니다. 주요 정보를 바탕으로 분석해보겠습니다:
+1. **수능 성적**: 동의대식 정시 성적 4.2는 상당히 높은 점수입니다. 이 점수는 경쟁률이 낮고 모집인원이 많은 학과에서는 충분한 경쟁력을 가질 수 있습니다.
+2. **소프트웨어공학부 모집인원 및 지원자 수**:
+   - 소프트웨어공학부의 정원 내 모집 인원은 45명입니다.
+   - 지원 인원이 많을 것으로 예상되므로 경쟁률이 높을 가능성이 있습니다.
+3. **성적 평균 및 표준 편차**:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 434.70입니다.
+   - 이는 동의대식 정시 성적 4.2보다 높습니다.
+4. **경쟁률**:
+   - 소프트웨어공학부의 경쟁률은 1.52:1으로 낮아 보이지만, 지원 인원이 많을 경우 경쟁률이 상승할 수 있습니다.
+5. **가산점**:
+   - 수능 가산점은 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 부여합니다.
+6. **전형별 성적 반영 비율**:
+   - 수능 반영 영역은 국어 (25%), 수학 (25%), 영어 (25%), 탐구 (25%)입니다.
+7. **가산점 없음**: 소프트웨어공학부에서는 가산점이 없습니다.
+결론적으로, 동의대식 정시 성적 4.2는 좋은 점수지만, 경쟁률과 지원 인원 수를 고려할 때 여전히 높은 경쟁력을 갖추고 있습니다. 그러나 소프트웨어공학부는 모집인원이 많아서 경쟁률이 상승할 가능성이 있으므로, 최선의 결과를 얻기 위해서는 다음과 같은 조치들을 고려해볼 수 있습니다:
+- **자기소개서와 면접 준비**: 자기소개서와 면접에서 지원 동기와 전공 적합성을 잘 표현해야 합니다.
+- **추천서 활용**: 가능하다면 교사나 직장의 추천서를 활용하여 지원 경쟁력을 높일 수 있습니다.
+따라서, 동의대식 정시 성적 4.2는 소프트웨어공학부에 충분한 경쟁력을 갖추고 있지만, 최종 결정은 모집인원과 지원 인원, 그리고 개인적인 준비 상태 등 여러 요소에 따라 달라질 수 있습니다.
+더 자세한 정보나 추가 질문이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.00518442143562431</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수는 수능 영어 등급으로 추정됩니다 (등급별 변환점수를 확인하면 됩니다). 화학환경공학부의 경우, 정시 모집에서 수능 성적을 주요 평가 기준으로 합니다.
+다군 수능(일반학생전형)에 대한 정보를 보면:
+- 단과대학: 공과대학
+- 계열: 공학
+- 모집단위: 화학환경공학부
+- 모집인원: 20명
+- 지원 인원: 145명
+- 경쟁률: 7.27
+평균 성적 정보를 보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 308.69
+- 영어 등급의 평균은 4.17
+이러한 정보를 바탕으로 판단하면:
+1. 지원자의 3.92는 상당히 높은 수준입니다.
+2. 이 점수는 평균보다 약간 낮지만, 경쟁률이 매우 높아서도 충원 합격자 중 일부가 이 점수를 받았습니다.
+3. 화학환경공학부의 경우, 영어 등급이 중요하므로 4.17 평균보다는 약간 낮지만 가능성이 있습니다.
+결론적으로:
+- 3.92라는 점수로 충분히 지원할 수 있는 가능성은 있지만,
+- 경쟁률이 매우 높아서 확실한 것은 아닙니다.
+- 다른 요인들도 고려해야 하며, 최종 결정을 내리기 위해서는 전체 성적 분포와 지원자들의 평균 점수를 더 자세히 확인해봐야 합니다.
+따라서, 이 점수로 가능하다고 볼 수 있지만 확실한 것은 아니므로 추가 정보 수집 후 결정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.07773618206120368</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학공학과, 환경공학과, 응용화학과는 수능 일반학생전형을 통해 모집됩니다. 성적 산출방법은 다음과 같습니다:
+- **국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수**
+당신의 동의대식 정시 성적 4.25는 이 방식으로 화학환경공학부에 원서를 접한 후 수능 일반학생전형을 통해 가능합니다.
+**주의사항:**
+- **수능 영어 등급 점수:** 4등급은 115점입니다.
+- **수능 탐구 영역 점수:** 화학공학과, 환경공학과, 응용화학과는 탐구 영역 중 과학교과를 포함하여 반영합니다.
+당신의 성적 4.25는 수능 일반학생전형을 통해 화학공학과, 환경공학과, 응용화학과에 지원할 수 있는 점수입니다. 원서접수 후, 동일한 모집단위와 전형요소를 반영하여 성적 산출이 가능합니다.
+따라서, **동의대식 정시 성적 4.25**는 **화학공학과, 환경공학과, 응용화학과 수능 일반학생전형**을 통해 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.1872913430002179</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 영어 등급을 포함한 수능 4개 영역의 평균 등급입니다. 영화학과의 경우, 예술디자인체육대학에서 모집하는 전공 중 하나로, 경쟁률이 상대적으로 낮은 편이지만 여전히 입학에 대한 확신을 가질 수는 없습니다.
+수능 점수만으로 합격 가능성을 판단하기보다는 다음과 같은 요소들을 고려해보세요:
+1. **전형방법**: 영화학과의 경우, 정시모집은 주로 수능 성적을 기준으로 합니다. 하지만 일부 전형에서는 서류평가나 면접 등 다른 평가요소도 포함될 수 있으므로, 해당 전형의 세부 내용을 확인해보세요.
+2. **경쟁률**: 영화학과의 경우, 지원 인원이 11명이고 모집인원이 5명으로 경쟁률은 2.20입니다. 이는 상대적으로 낮은 편이지만, 수능 점수가 평균보다 높아야 합니다.
+3. **평균점수**: 영화학과의 경우, 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80입니다. 이보다 높은 점수가 필요합니다.
+4. **영어 등급**: 영화학과의 경우, 영어 등급의 평균이 3.00이며, 표준 편차가 0.89로 낮아서 3.25 이상의 등급을 보유하고 있다면 이는 긍정적입니다.
+5. **전형별 특성**: 영화학과는 예술 분야에 속하므로, 창의성이나 표현력 등을 평가하는 면접이나 서류평가도 중요한 요소일 수 있습니다. 따라서 이러한 부분을 준비해두면 좋습니다.
+결론적으로 4.2라는 점수로는 합격 가능성이 있지만, 확실한 것은 아닙니다. 영화학과의 경우, 예술적 감각이나 창의성 등 다른 평가 요소도 중요하므로, 이러한 부분을 강화하는 것이 도움이 될 수 있습니다.
+추가적으로, 입학사정관들이 다양한 측면에서 지원자를 평가하기 때문에, 자신만의 특별한 경험이나 성취를 잘 전달할 수 있는 서류나 면접 답변을 준비해보세요.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.08414573239209831</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 형태에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8214195216114528</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3519345528539636</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.1782811366543097</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.1896940351771369</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.2651078447541366</v>
+      <c r="D305" t="n">
+        <v>0.2399699082284701</v>
       </c>
     </row>
   </sheetData>
